--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -199,6 +199,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$13:$B$17</c:f>
@@ -256,6 +280,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$13:$C$17</c:f>
@@ -313,6 +361,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$13:$D$17</c:f>
@@ -733,6 +805,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anfang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -745,6 +828,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$36:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$36:$B$40</c:f>
@@ -779,11 +886,23 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mitte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -791,6 +910,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$36:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$36:$C$40</c:f>
@@ -825,6 +968,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ende</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -837,6 +991,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$36:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$36:$D$40</c:f>
@@ -1112,7 +1290,10 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1257,6 +1438,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anfang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1327,11 +1519,23 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mitte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1397,6 +1601,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ende</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1869,6 +2084,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1876,6 +2092,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$68:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$68:$B$72</c:f>
@@ -1926,6 +2166,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1933,6 +2174,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$68:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$68:$C$72</c:f>
@@ -1983,6 +2248,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1990,6 +2256,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$68:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$68:$D$72</c:f>
@@ -2254,7 +2544,10 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2507,6 +2800,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2588,6 +2882,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3039,11 +3334,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anfang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3051,6 +3358,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$3:$B$7</c:f>
@@ -3085,6 +3416,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mitte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3097,6 +3439,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$3:$C$7</c:f>
@@ -3131,11 +3497,23 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ende</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3143,6 +3521,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$3:$D$7</c:f>
@@ -6803,15 +7205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6841,13 +7243,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -6879,15 +7281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6917,15 +7319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7330,7 +7732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
